--- a/docs/P4_04_rapport.xlsx
+++ b/docs/P4_04_rapport.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inspecteur" sheetId="1" r:id="rId1"/>
     <sheet name="W3C (HTML)" sheetId="2" r:id="rId2"/>
-    <sheet name="GTmetrix(Vitesse)" sheetId="5" r:id="rId3"/>
-    <sheet name="Tanaguru(Accessibilité)" sheetId="7" r:id="rId4"/>
-    <sheet name="Outliner(Structure HTML)" sheetId="4" r:id="rId5"/>
-    <sheet name="Google(Lighthouse)" sheetId="8" r:id="rId6"/>
+    <sheet name="Google(Lighthouse)" sheetId="8" r:id="rId3"/>
+    <sheet name="GTmetrix(Vitesse)" sheetId="5" r:id="rId4"/>
+    <sheet name="Tanaguru(Accessibilité)" sheetId="7" r:id="rId5"/>
+    <sheet name="Outliner(Structure HTML)" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -404,6 +404,176 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>486640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="609599"/>
+          <a:ext cx="11688040" cy="5343525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7105650"/>
+          <a:ext cx="11272650" cy="6076950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>150730</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2951080" y="13411200"/>
+          <a:ext cx="8459869" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -514,7 +684,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -909,6 +1079,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -940,15 +1139,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="E2:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -972,14 +1171,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:B42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -1086,32 +1285,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:E41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E2" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>